--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoj\Desktop\caiji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programs\ffxiv_macro_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{57D24AAC-05E8-42C7-90E2-28AFCAAC2216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27801E08-7CB7-4D46-AF35-66A7EF909112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{556172DE-1F9F-4037-87E9-859D015B3CFB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>制作</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>div_inner_static;only_when_inner_static</t>
+  </si>
+  <si>
+    <t>after_processing</t>
+  </si>
+  <si>
+    <t>force_to_18_after_processing</t>
   </si>
 </sst>
 </file>
@@ -566,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C3780-88F9-48EC-817E-5648EB435AEA}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -626,8 +632,11 @@
       <c r="Q1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -653,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -679,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -708,7 +717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -734,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -763,7 +772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -792,7 +801,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -817,8 +826,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -844,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -873,7 +885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -899,10 +911,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -927,8 +939,11 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -954,7 +969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -980,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1006,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>29</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programs\ffxiv_macro_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27801E08-7CB7-4D46-AF35-66A7EF909112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{182A8F4B-A2B4-4BAA-8450-43C15A9D2AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{556172DE-1F9F-4037-87E9-859D015B3CFB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>制作</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>force_to_18_after_processing</t>
+  </si>
+  <si>
+    <t>element_mark_applied</t>
   </si>
 </sst>
 </file>
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C3780-88F9-48EC-817E-5648EB435AEA}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1219,6 +1222,9 @@
       </c>
       <c r="H22">
         <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:16">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programs\ffxiv_macro_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{182A8F4B-A2B4-4BAA-8450-43C15A9D2AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2933014F-8A19-4283-A177-C9BAD1340487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{556172DE-1F9F-4037-87E9-859D015B3CFB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>制作</t>
   </si>
@@ -186,9 +186,6 @@
     <t>eff_50p_if_not_enough_endurance</t>
   </si>
   <si>
-    <t>no_work_time;do_not_complete</t>
-  </si>
-  <si>
     <t>endurance_add5</t>
   </si>
   <si>
@@ -223,6 +220,12 @@
   </si>
   <si>
     <t>element_mark_applied</t>
+  </si>
+  <si>
+    <t>no_work_time</t>
+  </si>
+  <si>
+    <t>do_not_complete</t>
   </si>
 </sst>
 </file>
@@ -575,15 +578,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C3780-88F9-48EC-817E-5648EB435AEA}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -615,7 +618,7 @@
         <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
         <v>36</v>
@@ -633,13 +636,16 @@
         <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>59</v>
+      </c>
+      <c r="S1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -691,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -720,7 +726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -772,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -804,7 +810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -833,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -859,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -888,7 +894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -914,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -943,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -972,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1105,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1195,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1224,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1253,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1398,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -1485,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1517,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1543,10 +1549,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>62</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1596,9 +1605,6 @@
       </c>
       <c r="H35">
         <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>33</v>
       </c>
       <c r="Q35">
         <v>8</v>
